--- a/teaching/traditional_assets/database/data/botswana/botswana_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/botswana/botswana_insurance_general.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0105</v>
+        <v>0.00735</v>
       </c>
       <c r="E2">
-        <v>-0.107</v>
+        <v>-0.0118</v>
       </c>
       <c r="G2">
-        <v>0.08863495985176034</v>
+        <v>0.09896355733868271</v>
       </c>
       <c r="H2">
-        <v>0.08863495985176034</v>
+        <v>0.09896355733868271</v>
       </c>
       <c r="I2">
-        <v>0.08928282843309529</v>
+        <v>0.08993647609495151</v>
       </c>
       <c r="J2">
-        <v>0.06621809775454568</v>
+        <v>0.07424330910167347</v>
       </c>
       <c r="K2">
-        <v>26.4</v>
+        <v>44.2</v>
       </c>
       <c r="L2">
-        <v>0.08153180975911055</v>
+        <v>0.1477766633233032</v>
       </c>
       <c r="M2">
-        <v>38</v>
+        <v>30.3</v>
       </c>
       <c r="N2">
-        <v>0.08216216216216216</v>
+        <v>0.06614276358873608</v>
       </c>
       <c r="O2">
-        <v>1.439393939393939</v>
+        <v>0.6855203619909502</v>
       </c>
       <c r="P2">
-        <v>38</v>
+        <v>30.3</v>
       </c>
       <c r="Q2">
-        <v>0.08216216216216216</v>
+        <v>0.06614276358873608</v>
       </c>
       <c r="R2">
-        <v>1.439393939393939</v>
+        <v>0.6855203619909502</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,67 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>12.2</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="V2">
-        <v>0.02637837837837838</v>
+        <v>0.02104344029687841</v>
       </c>
       <c r="W2">
-        <v>0.09445438282647585</v>
+        <v>0.1705905055962949</v>
       </c>
       <c r="X2">
-        <v>0.05172618526045322</v>
+        <v>0.04602442524895171</v>
       </c>
       <c r="Y2">
-        <v>0.04272819756602263</v>
+        <v>0.1245660803473431</v>
       </c>
       <c r="Z2">
-        <v>1.222920040978933</v>
+        <v>1.199278267842823</v>
       </c>
       <c r="AA2">
-        <v>0.08097943881953597</v>
+        <v>0.08903838713837424</v>
       </c>
       <c r="AB2">
-        <v>0.05153535447736316</v>
+        <v>0.04596597123634667</v>
       </c>
       <c r="AC2">
-        <v>0.02944408434217281</v>
+        <v>0.04307241590202757</v>
       </c>
       <c r="AD2">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AE2">
-        <v>1.176100766818731</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.676100766818731</v>
+        <v>1.6</v>
       </c>
       <c r="AG2">
-        <v>-8.523899233181268</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.007885648279205794</v>
+        <v>0.003480530780944094</v>
       </c>
       <c r="AI2">
-        <v>0.01389955748803121</v>
+        <v>0.006336633663366337</v>
       </c>
       <c r="AJ2">
-        <v>-0.01877609684470924</v>
+        <v>-0.01786428476203173</v>
       </c>
       <c r="AK2">
-        <v>-0.03378797756613493</v>
+        <v>-0.0331054928765544</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="AN2">
-        <v>0.08461668641056017</v>
+        <v>0.05776173285198556</v>
+      </c>
+      <c r="AO2">
+        <v>205.3435114503817</v>
       </c>
       <c r="AP2">
-        <v>-0.2885056433637255</v>
+        <v>-0.2902527075812275</v>
+      </c>
+      <c r="AQ2">
+        <v>205.3435114503817</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0105</v>
+        <v>0.00735</v>
       </c>
       <c r="E3">
-        <v>-0.107</v>
+        <v>-0.0118</v>
       </c>
       <c r="G3">
-        <v>0.08863495985176034</v>
+        <v>0.09896355733868271</v>
       </c>
       <c r="H3">
-        <v>0.08863495985176034</v>
+        <v>0.09896355733868271</v>
       </c>
       <c r="I3">
-        <v>0.08928282843309529</v>
+        <v>0.08993647609495151</v>
       </c>
       <c r="J3">
-        <v>0.06621809775454568</v>
+        <v>0.07424330910167347</v>
       </c>
       <c r="K3">
-        <v>26.4</v>
+        <v>44.2</v>
       </c>
       <c r="L3">
-        <v>0.08153180975911055</v>
+        <v>0.1477766633233032</v>
       </c>
       <c r="M3">
-        <v>38</v>
+        <v>30.3</v>
       </c>
       <c r="N3">
-        <v>0.08216216216216216</v>
+        <v>0.06614276358873608</v>
       </c>
       <c r="O3">
-        <v>1.439393939393939</v>
+        <v>0.6855203619909502</v>
       </c>
       <c r="P3">
-        <v>38</v>
+        <v>30.3</v>
       </c>
       <c r="Q3">
-        <v>0.08216216216216216</v>
+        <v>0.06614276358873608</v>
       </c>
       <c r="R3">
-        <v>1.439393939393939</v>
+        <v>0.6855203619909502</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,67 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>12.2</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="V3">
-        <v>0.02637837837837838</v>
+        <v>0.02104344029687841</v>
       </c>
       <c r="W3">
-        <v>0.09445438282647585</v>
+        <v>0.1705905055962949</v>
       </c>
       <c r="X3">
-        <v>0.05172618526045322</v>
+        <v>0.04602442524895171</v>
       </c>
       <c r="Y3">
-        <v>0.04272819756602263</v>
+        <v>0.1245660803473431</v>
       </c>
       <c r="Z3">
-        <v>1.222920040978933</v>
+        <v>1.199278267842823</v>
       </c>
       <c r="AA3">
-        <v>0.08097943881953597</v>
+        <v>0.08903838713837424</v>
       </c>
       <c r="AB3">
-        <v>0.05153535447736316</v>
+        <v>0.04596597123634667</v>
       </c>
       <c r="AC3">
-        <v>0.02944408434217281</v>
+        <v>0.04307241590202757</v>
       </c>
       <c r="AD3">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AE3">
-        <v>1.176100766818731</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.676100766818731</v>
+        <v>1.6</v>
       </c>
       <c r="AG3">
-        <v>-8.523899233181268</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.007885648279205794</v>
+        <v>0.003480530780944094</v>
       </c>
       <c r="AI3">
-        <v>0.01389955748803121</v>
+        <v>0.006336633663366337</v>
       </c>
       <c r="AJ3">
-        <v>-0.01877609684470924</v>
+        <v>-0.01786428476203173</v>
       </c>
       <c r="AK3">
-        <v>-0.03378797756613493</v>
+        <v>-0.0331054928765544</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.131</v>
       </c>
       <c r="AN3">
-        <v>0.08461668641056017</v>
+        <v>0.05776173285198556</v>
+      </c>
+      <c r="AO3">
+        <v>205.3435114503817</v>
       </c>
       <c r="AP3">
-        <v>-0.2885056433637255</v>
+        <v>-0.2902527075812275</v>
+      </c>
+      <c r="AQ3">
+        <v>205.3435114503817</v>
       </c>
     </row>
   </sheetData>
